--- a/study PYTHON/VOCA_BIBLE.xlsx
+++ b/study PYTHON/VOCA_BIBLE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDH\visual studio LDH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LDH\visual studio LDH\study PYTHON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7DC83-CD61-4147-952B-47E41BB27B26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FDE272-E141-4695-80AA-2BA48E563855}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13230" yWindow="0" windowWidth="25170" windowHeight="21000" activeTab="5" xr2:uid="{CC21A976-298F-4322-8D54-2313B8A2F297}"/>
+    <workbookView xWindow="12945" yWindow="0" windowWidth="25455" windowHeight="21000" activeTab="6" xr2:uid="{CC21A976-298F-4322-8D54-2313B8A2F297}"/>
   </bookViews>
   <sheets>
     <sheet name="day1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="345">
   <si>
     <t>vulnerable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1217,6 +1217,204 @@
   </si>
   <si>
     <t>주로 앉아 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conspicuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mundane</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flatter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audacious</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disseminate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proliferate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prevalent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affluent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>languid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frugal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>austere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chronological</t>
+  </si>
+  <si>
+    <t>한도를 초과하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적격의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두드러진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일상적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보강하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관여하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경의를 표하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확증하다, 승인하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치켜세우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대담한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연대순의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤경, 궁지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흩뿌리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증식하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유행하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부유한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적어지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해로운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축 늘어진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절약하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검소한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙임성 있는</t>
+  </si>
+  <si>
+    <t>wane</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2707,7 +2905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC77AD-3AC2-41D0-B751-4B4A3F2EAA31}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -2925,14 +3123,221 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7968AF8D-E601-47FF-8ECA-05E5F4E59B99}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
